--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleena\IdeaProjects\seleniumbasics\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E908D8-5E8C-4532-96A9-AC628645F95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD6546A-8484-4F6E-9354-CABFEE9569A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4550" yWindow="2330" windowWidth="14400" windowHeight="7360" xr2:uid="{0D83C3B1-E175-4A2E-836E-218126B48BA5}"/>
   </bookViews>
